--- a/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
+++ b/Input_files/Master_executors/MasterExecutor_Sanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanECTEST\Input_files\Master_executors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\ECTEST_Change_branch\Kaman_ECTEST_Sanity\Input_files\Master_executors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8E6AAB-13AA-42EC-800D-B7CFB93D175F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C15257C-6814-42AC-8DC9-CEDED3F8175C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,7 +253,7 @@
 2. Appropriate inventory message must be displayed</t>
   </si>
   <si>
-    <t>TC39_Add_MultipleItems_to_cart</t>
+    <t>TC40_Adding_MultipleItems_QuickOrder</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,1417 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{A444948E-6AA8-45F3-AB40-38513383CF85}"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="167">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -999,7 +2409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9FC807-CD3D-4456-9922-7EB264FD2C96}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E32"/>
     </sheetView>
   </sheetViews>
@@ -1654,82 +3064,385 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E23">
-    <cfRule type="uniqueValues" dxfId="25" priority="35"/>
+    <cfRule type="uniqueValues" dxfId="166" priority="152"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="uniqueValues" dxfId="24" priority="30"/>
+    <cfRule type="uniqueValues" dxfId="165" priority="147"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="uniqueValues" dxfId="23" priority="28"/>
+    <cfRule type="uniqueValues" dxfId="164" priority="145"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="163" priority="137"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="uniqueValues" dxfId="162" priority="136"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="uniqueValues" dxfId="161" priority="135"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="uniqueValues" dxfId="160" priority="121"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="159" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="uniqueValues" dxfId="158" priority="117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="uniqueValues" dxfId="157" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="uniqueValues" dxfId="156" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="155" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="154" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="153" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="uniqueValues" dxfId="152" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="uniqueValues" dxfId="151" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="uniqueValues" dxfId="150" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="149" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="148" priority="107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="147" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="uniqueValues" dxfId="146" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="uniqueValues" dxfId="145" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="uniqueValues" dxfId="144" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="uniqueValues" dxfId="143" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="uniqueValues" dxfId="142" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="uniqueValues" dxfId="141" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="uniqueValues" dxfId="140" priority="99"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="139" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="138" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="137" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="136" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="uniqueValues" dxfId="135" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="uniqueValues" dxfId="134" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="uniqueValues" dxfId="133" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="uniqueValues" dxfId="132" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="uniqueValues" dxfId="131" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="uniqueValues" dxfId="130" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="uniqueValues" dxfId="129" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="uniqueValues" dxfId="128" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="uniqueValues" dxfId="127" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="uniqueValues" dxfId="126" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="uniqueValues" dxfId="125" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="uniqueValues" dxfId="124" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="uniqueValues" dxfId="123" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="uniqueValues" dxfId="122" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="uniqueValues" dxfId="121" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="uniqueValues" dxfId="120" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="119" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="118" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="117" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="116" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="115" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="114" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="uniqueValues" dxfId="113" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="uniqueValues" dxfId="112" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="uniqueValues" dxfId="111" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="uniqueValues" dxfId="110" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="uniqueValues" dxfId="109" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="uniqueValues" dxfId="108" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="107" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="106" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="105" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="104" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="103" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="102" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="uniqueValues" dxfId="101" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="uniqueValues" dxfId="100" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="uniqueValues" dxfId="99" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="uniqueValues" dxfId="98" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="uniqueValues" dxfId="97" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="uniqueValues" dxfId="96" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="95" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="94" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="93" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="92" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="91" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="90" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="89" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="88" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="87" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="86" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="85" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="uniqueValues" dxfId="84" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="uniqueValues" dxfId="83" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="uniqueValues" dxfId="82" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="uniqueValues" dxfId="81" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="uniqueValues" dxfId="80" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="uniqueValues" dxfId="79" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="uniqueValues" dxfId="78" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="77" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="76" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="75" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="74" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="73" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="uniqueValues" dxfId="72" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="uniqueValues" dxfId="71" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="uniqueValues" dxfId="70" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="uniqueValues" dxfId="69" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="uniqueValues" dxfId="68" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="uniqueValues" dxfId="67" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="uniqueValues" dxfId="66" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="65" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="64" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="63" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="62" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="61" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="uniqueValues" dxfId="60" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="uniqueValues" dxfId="59" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="uniqueValues" dxfId="58" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="uniqueValues" dxfId="57" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="uniqueValues" dxfId="56" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="uniqueValues" dxfId="55" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="uniqueValues" dxfId="54" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="uniqueValues" dxfId="53" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="uniqueValues" dxfId="52" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="uniqueValues" dxfId="51" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="uniqueValues" dxfId="50" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="uniqueValues" dxfId="49" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="uniqueValues" dxfId="48" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="uniqueValues" dxfId="47" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="uniqueValues" dxfId="46" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="uniqueValues" dxfId="45" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="uniqueValues" dxfId="44" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="uniqueValues" dxfId="43" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="uniqueValues" dxfId="42" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E32">
-    <cfRule type="uniqueValues" dxfId="22" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E32">
-    <cfRule type="uniqueValues" dxfId="21" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E32">
-    <cfRule type="uniqueValues" dxfId="20" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="uniqueValues" dxfId="19" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="uniqueValues" dxfId="18" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="uniqueValues" dxfId="17" priority="18"/>
+    <cfRule type="uniqueValues" dxfId="39" priority="164"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:F31 E2:E32">
-    <cfRule type="uniqueValues" dxfId="16" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E32">
-    <cfRule type="uniqueValues" dxfId="15" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="uniqueValues" dxfId="14" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="uniqueValues" dxfId="13" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E32">
-    <cfRule type="uniqueValues" dxfId="12" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E32">
-    <cfRule type="uniqueValues" dxfId="11" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E32">
-    <cfRule type="uniqueValues" dxfId="10" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E32">
-    <cfRule type="uniqueValues" dxfId="9" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E32">
-    <cfRule type="uniqueValues" dxfId="8" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E32">
-    <cfRule type="uniqueValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E32">
-    <cfRule type="uniqueValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E32">
-    <cfRule type="uniqueValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E32">
-    <cfRule type="uniqueValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="uniqueValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="uniqueValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E32">
-    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+    <cfRule type="uniqueValues" dxfId="38" priority="170"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
